--- a/Technical Projects/A3D Mirage - Compact DIY 3D Printer/Files/Notes_A3D_Mirage.xlsx
+++ b/Technical Projects/A3D Mirage - Compact DIY 3D Printer/Files/Notes_A3D_Mirage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capayel\Desktop\Desktop_Documents\Voron_0_Mirage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capayel\Documents\Github\PMNaty\Portfolio\Technical Projects\A3D Mirage - Compact DIY 3D Printer\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C949F9-191C-4D78-968A-C31500DC4278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D691B288-7817-405B-9125-CF52EDF2690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{3D81DF33-2C0F-4253-AD94-7B906C199057}"/>
+    <workbookView xWindow="705" yWindow="1065" windowWidth="9915" windowHeight="14535" firstSheet="1" activeTab="1" xr2:uid="{3D81DF33-2C0F-4253-AD94-7B906C199057}"/>
   </bookViews>
   <sheets>
     <sheet name="A3D Notes" sheetId="9" r:id="rId1"/>
@@ -589,157 +589,167 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>115359</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Group 4">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D333F2-DAA0-62E5-0022-F83B5FB43151}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D10156-3290-9D22-D471-32F818CEC770}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1232647" y="12055816"/>
           <a:ext cx="2958353" cy="3344367"/>
-          <a:chOff x="1232647" y="29583529"/>
-          <a:chExt cx="3801005" cy="4248743"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="Picture 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D10156-3290-9D22-D471-32F818CEC770}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1232647" y="29583529"/>
-            <a:ext cx="3801005" cy="4248743"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Oval 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDBEA72-636B-C77B-1875-52A1D829E649}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4605617" y="32205707"/>
-            <a:ext cx="302559" cy="313764"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="00FFFF"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Oval 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60197DF4-FE83-BE83-A94B-3E07E4E43B63}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4605617" y="32900472"/>
-            <a:ext cx="302559" cy="313764"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="00FFFF"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>159916</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>67668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>148870</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>68115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDBEA72-636B-C77B-1875-52A1D829E649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857857" y="14119844"/>
+          <a:ext cx="235484" cy="246977"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00FFFF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>159916</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>121488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>148870</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>121935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60197DF4-FE83-BE83-A94B-3E07E4E43B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857857" y="14666723"/>
+          <a:ext cx="235484" cy="246977"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00FFFF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -843,192 +853,182 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17431</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>402</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>60170</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173578C5-A1EA-D8B2-DC91-7D20DEA727A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B7E537-A287-92F1-81DD-F3C58D29650C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="998483" y="1497724"/>
-          <a:ext cx="2014396" cy="1807515"/>
-          <a:chOff x="742950" y="1425730"/>
-          <a:chExt cx="1998631" cy="1793720"/>
+          <a:off x="996462" y="1494692"/>
+          <a:ext cx="1495094" cy="1803978"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="Group 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08DD1E3-012E-122D-A9C7-4625F0AC1788}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="742950" y="1425730"/>
-            <a:ext cx="1485900" cy="1793720"/>
-            <a:chOff x="742950" y="1485901"/>
-            <a:chExt cx="1485900" cy="1793720"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Picture 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B7E537-A287-92F1-81DD-F3C58D29650C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="742950" y="1485901"/>
-              <a:ext cx="1485900" cy="1793720"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="Arrow: Curved Up 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA590B5-BE08-177D-8414-ED1C7213079C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16827391">
-              <a:off x="1562100" y="2409824"/>
-              <a:ext cx="647700" cy="219075"/>
-            </a:xfrm>
-            <a:prstGeom prst="curvedUpArrow">
-              <a:avLst/>
-            </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>43395</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>215438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14711</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119496</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Curved Up 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA590B5-BE08-177D-8414-ED1C7213079C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16827391">
+          <a:off x="1820832" y="2423847"/>
+          <a:ext cx="651404" cy="220431"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="TextBox 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA24ACE6-B9AA-3692-576C-E2BAC2CB3572}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2114550" y="2305050"/>
-            <a:ext cx="627031" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134316</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17431</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>154195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA24ACE6-B9AA-3692-576C-E2BAC2CB3572}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2380902" y="2383807"/>
+          <a:ext cx="631977" cy="266595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FFFF"/>
+        </a:solidFill>
+        <a:ln>
           <a:solidFill>
-            <a:srgbClr val="00FFFF"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Release</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Release</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1036,7 +1036,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>192834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -1044,112 +1044,107 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>131363</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Group 8">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884450B8-A64A-48C3-6A4D-27B267EEBF72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F67A83-CC91-2D47-AB07-C40CE059AA8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="748862" y="4742793"/>
-          <a:ext cx="2246586" cy="2627570"/>
-          <a:chOff x="773205" y="4461148"/>
-          <a:chExt cx="2218765" cy="2596657"/>
+          <a:off x="747346" y="4926026"/>
+          <a:ext cx="2242039" cy="2429683"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="Picture 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F67A83-CC91-2D47-AB07-C40CE059AA8E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="773205" y="4652081"/>
-            <a:ext cx="2218765" cy="2405724"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Arrow: Curved Up 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1DF5E7-FCEA-4FED-B356-76C90F99E92E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="18930057" flipV="1">
-            <a:off x="1224346" y="4461148"/>
-            <a:ext cx="939091" cy="451867"/>
-          </a:xfrm>
-          <a:prstGeom prst="curvedUpArrow">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>206757</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>159238</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>207251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Curved Up 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1DF5E7-FCEA-4FED-B356-76C90F99E92E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18930057" flipV="1">
+          <a:off x="1203219" y="4733192"/>
+          <a:ext cx="948942" cy="456367"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
-          <a:ln>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1160,115 +1155,110 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>51488</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18071</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A13D9E8-059F-4CCB-B787-A72D665C845C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308D1112-331F-5E07-86DB-19C23C04A830}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="998483" y="8487103"/>
-          <a:ext cx="2547695" cy="1747345"/>
-          <a:chOff x="986118" y="7888942"/>
-          <a:chExt cx="2516782" cy="1725706"/>
+          <a:off x="996462" y="8469923"/>
+          <a:ext cx="2010994" cy="1743808"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="Picture 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308D1112-331F-5E07-86DB-19C23C04A830}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="986118" y="7888942"/>
-            <a:ext cx="1990542" cy="1725706"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D030836-C68A-4DEA-A9E5-D6740F206640}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2644588" y="8415618"/>
-            <a:ext cx="858312" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180818</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51488</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52190</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D030836-C68A-4DEA-A9E5-D6740F206640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2671972" y="9002124"/>
+          <a:ext cx="867131" cy="267335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FFFF"/>
+        </a:solidFill>
+        <a:ln>
           <a:solidFill>
-            <a:srgbClr val="00FFFF"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Tip of hinge</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Tip of hinge</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1712,126 +1702,121 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>158889</xdr:colOff>
+      <xdr:colOff>141942</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>149066</xdr:rowOff>
+      <xdr:rowOff>167928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>237192</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>26137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F046CB3A-9A69-BD65-55C5-FA4DE35D50D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19209418">
+          <a:off x="4875134" y="25826813"/>
+          <a:ext cx="95250" cy="356439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>186935</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>101899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>194701</xdr:colOff>
+      <xdr:colOff>213136</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>211782</xdr:rowOff>
+      <xdr:rowOff>209222</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="Group 24">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FA8BBA-C38D-1B7F-4AF2-26AF39265180}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651F5B7F-9B71-45F3-BA3D-3EF9756D65F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm rot="20974094">
-          <a:off x="4901682" y="25859997"/>
-          <a:ext cx="285433" cy="561957"/>
-          <a:chOff x="4928717" y="25903201"/>
-          <a:chExt cx="284928" cy="560946"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19209418">
+          <a:off x="4920127" y="26009899"/>
+          <a:ext cx="275317" cy="356438"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Rectangle 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F046CB3A-9A69-BD65-55C5-FA4DE35D50D7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="19835324">
-            <a:off x="4928717" y="25903201"/>
-            <a:ext cx="95250" cy="356439"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Rectangle 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651F5B7F-9B71-45F3-BA3D-3EF9756D65F5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="19835324">
-            <a:off x="4938328" y="26107709"/>
-            <a:ext cx="275317" cy="356438"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2247,7 +2232,7 @@
   <dimension ref="B2:U79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2594,9 +2579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B0EDC2-E4A1-4746-BFCB-48845DBD594E}">
   <dimension ref="B1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
